--- a/biology/Virologie/Phenuiviridae/Phenuiviridae.xlsx
+++ b/biology/Virologie/Phenuiviridae/Phenuiviridae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Phenuiviridae sont une famille de virus de l'ordre des Bunyavirales, créée en 2016, qui comprend 19 genres et 117 espèces (ICTV, version 2019)[2]. Ce sont des virus à ARN à simple brin à polarité négative, qui peuvent infecter principalement l'Homme (Phlebovirus), les animaux (Vertébrés ou Invertébrés) mais aussi les  plantes  (Coguvirus, Rubodvirus, Tenuivirus) et les champignons (Entovirus).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Phenuiviridae sont une famille de virus de l'ordre des Bunyavirales, créée en 2016, qui comprend 19 genres et 117 espèces (ICTV, version 2019). Ce sont des virus à ARN à simple brin à polarité négative, qui peuvent infecter principalement l'Homme (Phlebovirus), les animaux (Vertébrés ou Invertébrés) mais aussi les  plantes  (Coguvirus, Rubodvirus, Tenuivirus) et les champignons (Entovirus).
 </t>
         </is>
       </c>
@@ -511,11 +523,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La famille est rattachée au  groupe V de la classification Baltimore[3].
-Étymologie
-Le nom de la famille « Phenuiviridae » dérive d'une combinaison des noms de deux des genres inclus dans la famille,  « Phlebovirus  » et « Tenuivirus », avec le suffixe « -viridae » qui caractérise les noms de familles de virus[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La famille est rattachée au  groupe V de la classification Baltimore.
 </t>
         </is>
       </c>
@@ -541,12 +553,51 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de la famille « Phenuiviridae » dérive d'une combinaison des noms de deux des genres inclus dans la famille,  « Phlebovirus  » et « Tenuivirus », avec le suffixe « -viridae » qui caractérise les noms de familles de virus.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Phenuiviridae</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Virologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Phenuiviridae</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon NCBI  (22 décembre 2020)[5] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (22 décembre 2020) :
 Bandavirus
 Banyangvirus
 Beidivirus
